--- a/data/outputs/management_altmetric/14.xlsx
+++ b/data/outputs/management_altmetric/14.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE29"/>
+  <dimension ref="A1:CF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1019,6 +1024,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1262,6 +1270,9 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1501,6 +1512,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1754,6 +1768,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1997,6 +2014,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2236,6 +2256,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2483,6 +2506,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2736,6 +2762,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2987,6 +3016,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3232,6 +3264,9 @@
       <c r="CE11" t="n">
         <v>1</v>
       </c>
+      <c r="CF11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3483,6 +3518,9 @@
       <c r="CE12" t="n">
         <v>2</v>
       </c>
+      <c r="CF12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3737,6 +3775,9 @@
       </c>
       <c r="CE13" t="n">
         <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>19.5</v>
       </c>
     </row>
     <row r="14">
@@ -3983,6 +4024,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4233,6 +4277,9 @@
       </c>
       <c r="CE15" t="n">
         <v>1</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>5.05</v>
       </c>
     </row>
     <row r="16">
@@ -4471,6 +4518,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4714,6 +4764,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4953,6 +5006,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5186,6 +5242,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5427,6 +5486,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5676,6 +5738,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5921,6 +5986,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6175,6 +6243,9 @@
       </c>
       <c r="CE23" t="n">
         <v>1</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="24">
@@ -6413,6 +6484,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6658,6 +6732,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6901,6 +6978,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7140,6 +7220,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7393,6 +7476,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7638,6 +7724,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
